--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -27,7 +27,7 @@
     <t>EnemyIndexs</t>
   </si>
   <si>
-    <t>hp</t>
+    <t>interval</t>
   </si>
   <si>
     <t>##type</t>
@@ -48,91 +48,91 @@
     <t>对应的出现时间间隔</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,9</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|700</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,10</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|701</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,11</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|702</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,12</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,12</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|703</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,13</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,13</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|704</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,14</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,14</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|705</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,15</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,15</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|706</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,16</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,16</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|707</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,17</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,17</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|708</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,18</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,18</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|709</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,19</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,19</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|710</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,20</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,20</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|711</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,21</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,21</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|712</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,22</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,22</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|713</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,23</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,23</t>
   </si>
   <si>
     <t>100|200|300|400|500|600|714</t>
@@ -1110,13 +1110,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="3" max="4" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>##</t>
   </si>
@@ -136,6 +136,138 @@
   </si>
   <si>
     <t>100|200|300|400|500|600|714</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,24</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|715</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,25</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|716</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,26</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|717</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,27</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|718</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,28</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|719</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,29</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|720</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,30</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|721</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,31</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|722</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,32</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|723</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,33</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|724</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,34</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|725</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,35</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|726</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,36</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|727</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,37</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|728</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,38</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|729</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,39</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|730</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,40</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|731</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,41</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|732</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,42</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|733</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,43</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|734</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,44</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|735</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,45</t>
+  </si>
+  <si>
+    <t>100|200|300|400|500|600|736</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1321,6 +1453,248 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>##</t>
   </si>
@@ -39,235 +39,121 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>(list#sep=|),int</t>
-  </si>
-  <si>
     <t>出现的敌人序号</t>
   </si>
   <si>
     <t>对应的出现时间间隔</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|700</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|701</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|702</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,12</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|703</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,13</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|704</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,14</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|705</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,15</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|706</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,16</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|707</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,17</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|708</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,18</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|709</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,19</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|710</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,20</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|711</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,21</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|712</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,22</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|713</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,23</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|714</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,24</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|715</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,25</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|716</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,26</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|717</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,27</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|718</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,28</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|719</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,29</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|720</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,30</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|721</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,31</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|722</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,32</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|723</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,33</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|724</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,34</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|725</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,35</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|726</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,36</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|727</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,37</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|728</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,38</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|729</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,39</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|730</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,40</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|731</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,41</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|732</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,42</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|733</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,43</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|734</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,44</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|735</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,45</t>
-  </si>
-  <si>
-    <t>100|200|300|400|500|600|736</t>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,9,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,9,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,9,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,10,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,10,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,10,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,11,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,11,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,11,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,12,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,12,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,12,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,13,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,13,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,13,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,14,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,14,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,14,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,15,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,15,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,15,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,16,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,16,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,16,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,17,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,17,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,17,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,18,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,18,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,18,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,19,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,19,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,19,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,20,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,20,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,20,</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,21,</t>
   </si>
 </sst>
 </file>
@@ -1241,13 +1127,14 @@
   <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="4" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1275,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1284,10 +1171,10 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -1295,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1306,10 +1193,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1317,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1328,10 +1215,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1339,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1350,10 +1237,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1361,10 +1248,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1372,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1383,10 +1270,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1394,10 +1281,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1405,10 +1292,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -1416,10 +1303,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -1427,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="2">
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1438,10 +1325,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1449,10 +1336,10 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -1460,10 +1347,10 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -1471,10 +1358,10 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -1482,10 +1369,10 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="2">
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -1493,10 +1380,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1504,10 +1391,10 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1050</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -1515,10 +1402,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1100</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -1526,10 +1413,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1150</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1537,10 +1424,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1200</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -1548,10 +1435,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1250</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -1559,10 +1446,10 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1300</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -1570,10 +1457,10 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1350</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -1581,10 +1468,10 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1400</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -1592,10 +1479,10 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1450</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -1603,10 +1490,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -1614,10 +1501,10 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1550</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -1625,10 +1512,10 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1600</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -1636,10 +1523,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1650</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -1647,10 +1534,10 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1700</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -1658,10 +1545,10 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1750</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -1669,10 +1556,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1800</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -1680,10 +1567,10 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1850</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -1691,10 +1578,10 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1900</v>
       </c>
     </row>
   </sheetData>

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="21600" windowHeight="10690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>##</t>
   </si>
@@ -30,6 +30,9 @@
     <t>interval</t>
   </si>
   <si>
+    <t>enemyInterval</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -39,10 +42,16 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>出现的敌人序号</t>
   </si>
   <si>
     <t>对应的出现时间间隔</t>
+  </si>
+  <si>
+    <t>这个波次每个敌人间出现的间隔</t>
   </si>
   <si>
     <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,9,</t>
@@ -1125,19 +1134,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="54.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="30.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="29.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,438 +1160,558 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>3500</v>
+      </c>
+      <c r="E5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>5000</v>
+      </c>
+      <c r="E6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>6500</v>
+      </c>
+      <c r="E7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>8000</v>
+      </c>
+      <c r="E8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>9500</v>
+      </c>
+      <c r="E9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>11000</v>
+      </c>
+      <c r="E10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>12500</v>
+      </c>
+      <c r="E11">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>14000</v>
+      </c>
+      <c r="E12">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>15500</v>
+      </c>
+      <c r="E13">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>17000</v>
+      </c>
+      <c r="E14">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>18500</v>
+      </c>
+      <c r="E15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>20000</v>
+      </c>
+      <c r="E16">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>21500</v>
+      </c>
+      <c r="E17">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>23000</v>
+      </c>
+      <c r="E18">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>24500</v>
+      </c>
+      <c r="E19">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>26000</v>
+      </c>
+      <c r="E20">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>27500</v>
+      </c>
+      <c r="E21">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+        <v>29000</v>
+      </c>
+      <c r="E22">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>30500</v>
+      </c>
+      <c r="E23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>32000</v>
+      </c>
+      <c r="E24">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>33500</v>
+      </c>
+      <c r="E25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <v>35000</v>
+      </c>
+      <c r="E26">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <v>36500</v>
+      </c>
+      <c r="E27">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <v>38000</v>
+      </c>
+      <c r="E28">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
+        <v>39500</v>
+      </c>
+      <c r="E29">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>41000</v>
+      </c>
+      <c r="E30">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
+        <v>42500</v>
+      </c>
+      <c r="E31">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+        <v>44000</v>
+      </c>
+      <c r="E32">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+        <v>45500</v>
+      </c>
+      <c r="E33">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>47000</v>
+      </c>
+      <c r="E34">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>48500</v>
+      </c>
+      <c r="E35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36">
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+        <v>50000</v>
+      </c>
+      <c r="E36">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37">
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+        <v>51500</v>
+      </c>
+      <c r="E37">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
+        <v>53000</v>
+      </c>
+      <c r="E38">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39">
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
+        <v>54500</v>
+      </c>
+      <c r="E39">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40">
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2">
-        <v>1900</v>
+        <v>56000</v>
+      </c>
+      <c r="E40">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1730,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1617,7 +1747,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10690"/>
+    <workbookView windowWidth="21600" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,19 +48,19 @@
     <t>出现的敌人序号</t>
   </si>
   <si>
-    <t>对应的出现时间间隔</t>
+    <t>游戏开始X毫秒后这列敌人开始出现</t>
   </si>
   <si>
     <t>这个波次每个敌人间出现的间隔</t>
   </si>
   <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,9,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,9,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,9,</t>
+    <t>1,3,4,6,7</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>1,3,4,6,7,8,9,10,11,12,13,15</t>
   </si>
   <si>
     <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,10,</t>
@@ -1137,13 +1137,13 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="54.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="30.3727272727273" customWidth="1"/>
+    <col min="4" max="4" width="35.3636363636364" customWidth="1"/>
     <col min="5" max="5" width="29.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1218,10 +1218,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="E5">
-        <v>301</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1232,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E6">
         <v>302</v>
@@ -1246,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="E7">
         <v>303</v>
@@ -1260,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="E8">
         <v>304</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="E9">
         <v>305</v>
@@ -1288,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="E10">
         <v>306</v>
@@ -1302,7 +1302,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>12500</v>
+        <v>35000</v>
       </c>
       <c r="E11">
         <v>307</v>
@@ -1316,7 +1316,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="E12">
         <v>308</v>
@@ -1330,7 +1330,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>15500</v>
+        <v>45000</v>
       </c>
       <c r="E13">
         <v>309</v>
@@ -1344,7 +1344,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="2">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="E14">
         <v>310</v>
@@ -1358,7 +1358,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>18500</v>
+        <v>55000</v>
       </c>
       <c r="E15">
         <v>311</v>
@@ -1372,7 +1372,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="E16">
         <v>312</v>
@@ -1386,7 +1386,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2">
-        <v>21500</v>
+        <v>65000</v>
       </c>
       <c r="E17">
         <v>313</v>
@@ -1400,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="2">
-        <v>23000</v>
+        <v>70000</v>
       </c>
       <c r="E18">
         <v>314</v>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>24500</v>
+        <v>75000</v>
       </c>
       <c r="E19">
         <v>315</v>
@@ -1428,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>26000</v>
+        <v>80000</v>
       </c>
       <c r="E20">
         <v>316</v>
@@ -1442,7 +1442,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="2">
-        <v>27500</v>
+        <v>85000</v>
       </c>
       <c r="E21">
         <v>317</v>
@@ -1456,7 +1456,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="2">
-        <v>29000</v>
+        <v>90000</v>
       </c>
       <c r="E22">
         <v>318</v>
@@ -1470,7 +1470,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2">
-        <v>30500</v>
+        <v>95000</v>
       </c>
       <c r="E23">
         <v>319</v>
@@ -1484,7 +1484,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="2">
-        <v>32000</v>
+        <v>100000</v>
       </c>
       <c r="E24">
         <v>320</v>
@@ -1498,7 +1498,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="2">
-        <v>33500</v>
+        <v>105000</v>
       </c>
       <c r="E25">
         <v>321</v>
@@ -1512,7 +1512,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="2">
-        <v>35000</v>
+        <v>110000</v>
       </c>
       <c r="E26">
         <v>322</v>
@@ -1526,7 +1526,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="2">
-        <v>36500</v>
+        <v>115000</v>
       </c>
       <c r="E27">
         <v>323</v>
@@ -1540,7 +1540,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="2">
-        <v>38000</v>
+        <v>120000</v>
       </c>
       <c r="E28">
         <v>324</v>
@@ -1554,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="2">
-        <v>39500</v>
+        <v>125000</v>
       </c>
       <c r="E29">
         <v>325</v>
@@ -1568,7 +1568,7 @@
         <v>38</v>
       </c>
       <c r="D30" s="2">
-        <v>41000</v>
+        <v>130000</v>
       </c>
       <c r="E30">
         <v>326</v>
@@ -1582,7 +1582,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="2">
-        <v>42500</v>
+        <v>135000</v>
       </c>
       <c r="E31">
         <v>327</v>
@@ -1596,7 +1596,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="2">
-        <v>44000</v>
+        <v>140000</v>
       </c>
       <c r="E32">
         <v>328</v>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="2">
-        <v>45500</v>
+        <v>145000</v>
       </c>
       <c r="E33">
         <v>329</v>
@@ -1624,7 +1624,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="2">
-        <v>47000</v>
+        <v>150000</v>
       </c>
       <c r="E34">
         <v>330</v>
@@ -1638,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="2">
-        <v>48500</v>
+        <v>155000</v>
       </c>
       <c r="E35">
         <v>331</v>
@@ -1652,7 +1652,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="2">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="E36">
         <v>332</v>
@@ -1666,7 +1666,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="2">
-        <v>51500</v>
+        <v>165000</v>
       </c>
       <c r="E37">
         <v>333</v>
@@ -1680,7 +1680,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="2">
-        <v>53000</v>
+        <v>170000</v>
       </c>
       <c r="E38">
         <v>334</v>
@@ -1694,7 +1694,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="2">
-        <v>54500</v>
+        <v>175000</v>
       </c>
       <c r="E39">
         <v>335</v>
@@ -1708,7 +1708,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="2">
-        <v>56000</v>
+        <v>180000</v>
       </c>
       <c r="E40">
         <v>336</v>

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10730"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>##</t>
   </si>
@@ -54,115 +54,49 @@
     <t>这个波次每个敌人间出现的间隔</t>
   </si>
   <si>
-    <t>1,3,4,6,7</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,10,11,12,13,15</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,10,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,10,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,10,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,11,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,11,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,11,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,12,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,12,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,12,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,13,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,13,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,13,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,14,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,14,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,14,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,15,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,15,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,15,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,16,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,16,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,16,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,17,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,17,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,17,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,18,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,18,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,18,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,19,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,19,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,19,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,20,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,10,7,8,9,1,3,4,6,7,8,20,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,11,7,8,9,1,3,4,6,7,8,20,</t>
-  </si>
-  <si>
-    <t>1,3,4,6,7,8,9,1,3,4,6,7,8,9,7,8,9,1,3,4,6,7,8,21,</t>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,9</t>
+  </si>
+  <si>
+    <t>4,5,6,1,2,3</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>7,8,9,1,2,3</t>
+  </si>
+  <si>
+    <t>7,8,9,4,5,6</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,9,4,5,6</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,1,2,3</t>
+  </si>
+  <si>
+    <t>4,5,6,1,2,3,7,8,9</t>
+  </si>
+  <si>
+    <t>7,8,9,1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>7,8,9,4,5,6,1,2,3</t>
   </si>
 </sst>
 </file>
@@ -328,12 +262,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -636,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +588,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,10 +609,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,28 +633,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -723,19 +663,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,43 +684,52 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,27 +1083,27 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="54.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="35.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="29.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="4" max="4" width="35.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="29.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1165,16 +1111,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
@@ -1182,14 +1128,14 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
@@ -1203,11 +1149,11 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1217,11 +1163,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>2500</v>
+      <c r="D5" s="3">
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1231,11 +1177,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
-        <v>10000</v>
+      <c r="D6" s="3">
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1245,11 +1191,11 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>15000</v>
+      <c r="D7" s="3">
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>303</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1259,11 +1205,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2">
-        <v>20000</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1273,11 +1219,11 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
-        <v>25000</v>
+      <c r="D9" s="3">
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>305</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1287,11 +1233,11 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
-        <v>30000</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>306</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1301,11 +1247,11 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
-        <v>35000</v>
+      <c r="D11" s="3">
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1315,11 +1261,11 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2">
-        <v>40000</v>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>308</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1329,11 +1275,11 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2">
-        <v>45000</v>
+      <c r="D13" s="3">
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>309</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1343,11 +1289,11 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2">
-        <v>50000</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>310</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1357,11 +1303,11 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2">
-        <v>55000</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>311</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -1371,11 +1317,11 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2">
-        <v>60000</v>
+      <c r="D16" s="3">
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>312</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -1385,334 +1331,92 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2">
-        <v>65000</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:5">
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="2">
-        <v>70000</v>
-      </c>
-      <c r="E18">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2">
-        <v>75000</v>
-      </c>
-      <c r="E19">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2">
-        <v>80000</v>
-      </c>
-      <c r="E20">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2">
-        <v>85000</v>
-      </c>
-      <c r="E21">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2">
-        <v>90000</v>
-      </c>
-      <c r="E22">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2">
-        <v>95000</v>
-      </c>
-      <c r="E23">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E24">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2">
-        <v>105000</v>
-      </c>
-      <c r="E25">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2">
-        <v>110000</v>
-      </c>
-      <c r="E26">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2">
-        <v>115000</v>
-      </c>
-      <c r="E27">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2">
-        <v>120000</v>
-      </c>
-      <c r="E28">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2">
-        <v>125000</v>
-      </c>
-      <c r="E29">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="2">
-        <v>130000</v>
-      </c>
-      <c r="E30">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="2">
-        <v>135000</v>
-      </c>
-      <c r="E31">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2">
-        <v>140000</v>
-      </c>
-      <c r="E32">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2">
-        <v>145000</v>
-      </c>
-      <c r="E33">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2">
-        <v>150000</v>
-      </c>
-      <c r="E34">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="2">
-        <v>155000</v>
-      </c>
-      <c r="E35">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="2">
-        <v>160000</v>
-      </c>
-      <c r="E36">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="2">
-        <v>165000</v>
-      </c>
-      <c r="E37">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="2">
-        <v>170000</v>
-      </c>
-      <c r="E38">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="2">
-        <v>175000</v>
-      </c>
-      <c r="E39">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="2">
-        <v>180000</v>
-      </c>
-      <c r="E40">
-        <v>336</v>
-      </c>
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1730,7 +1434,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1747,7 +1451,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>##</t>
   </si>
@@ -33,6 +33,9 @@
     <t>enemyInterval</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>出现的敌人序号</t>
   </si>
   <si>
@@ -54,49 +60,97 @@
     <t>这个波次每个敌人间出现的间隔</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>1,2,3</t>
   </si>
   <si>
+    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时600毫秒</t>
+  </si>
+  <si>
     <t>4,5,6</t>
   </si>
   <si>
+    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5600毫秒</t>
+  </si>
+  <si>
     <t>7,8,9</t>
   </si>
   <si>
+    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10600</t>
+  </si>
+  <si>
     <t>1,2,3,4,5,6</t>
   </si>
   <si>
+    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时601毫秒</t>
+  </si>
+  <si>
     <t>1,2,3,7,8,9</t>
   </si>
   <si>
+    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5601毫秒</t>
+  </si>
+  <si>
     <t>4,5,6,1,2,3</t>
   </si>
   <si>
+    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10601</t>
+  </si>
+  <si>
     <t>4,5,6,7,8,9</t>
   </si>
   <si>
+    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时602毫秒</t>
+  </si>
+  <si>
     <t>7,8,9,1,2,3</t>
   </si>
   <si>
+    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5602毫秒</t>
+  </si>
+  <si>
     <t>7,8,9,4,5,6</t>
   </si>
   <si>
+    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10602</t>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9</t>
   </si>
   <si>
+    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时603毫秒</t>
+  </si>
+  <si>
     <t>1,2,3,7,8,9,4,5,6</t>
   </si>
   <si>
+    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5603毫秒</t>
+  </si>
+  <si>
     <t>4,5,6,7,8,9,1,2,3</t>
   </si>
   <si>
+    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10603</t>
+  </si>
+  <si>
     <t>4,5,6,1,2,3,7,8,9</t>
   </si>
   <si>
+    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时604毫秒</t>
+  </si>
+  <si>
     <t>7,8,9,1,2,3,4,5,6</t>
   </si>
   <si>
+    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5604毫秒</t>
+  </si>
+  <si>
     <t>7,8,9,4,5,6,1,2,3</t>
+  </si>
+  <si>
+    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10604</t>
   </si>
 </sst>
 </file>
@@ -718,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,9 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,20 +1131,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="4" width="35.3666666666667" customWidth="1"/>
-    <col min="5" max="5" width="29.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="54.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="35.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="29.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="79.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,45 +1161,54 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1155,201 +1216,246 @@
       <c r="E4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="E7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>25000</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
-        <v>100</v>
+        <v>35000</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3">
-        <v>100</v>
+        <v>45000</v>
       </c>
       <c r="E13">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="E14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>55000</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>65000</v>
       </c>
       <c r="E17">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:5">
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4">
-        <v>100</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="3">
+        <v>70000</v>
       </c>
       <c r="E18" s="1">
         <v>200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="4:4">
@@ -1434,7 +1540,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1451,7 +1557,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12530"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,43 +69,43 @@
     <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时600毫秒</t>
   </si>
   <si>
-    <t>4,5,6</t>
+    <t>1,4,5,6</t>
   </si>
   <si>
     <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5600毫秒</t>
   </si>
   <si>
-    <t>7,8,9</t>
+    <t>1,7,8,9</t>
   </si>
   <si>
     <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10600</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
+    <t>1,1,2,3,4,5,6</t>
   </si>
   <si>
     <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时601毫秒</t>
   </si>
   <si>
-    <t>1,2,3,7,8,9</t>
+    <t>1,1,2,3,7,8,9</t>
   </si>
   <si>
     <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5601毫秒</t>
   </si>
   <si>
-    <t>4,5,6,1,2,3</t>
+    <t>1,4,5,6,1,2,3</t>
   </si>
   <si>
     <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10601</t>
   </si>
   <si>
-    <t>4,5,6,7,8,9</t>
+    <t>1,4,5,6,7,8,9</t>
   </si>
   <si>
     <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时602毫秒</t>
   </si>
   <si>
-    <t>7,8,9,1,2,3</t>
+    <t>1,7,8,9,1,2,3</t>
   </si>
   <si>
     <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5602毫秒</t>
@@ -1134,15 +1134,15 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="54.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="35.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="29.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="79.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="4" max="4" width="35.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="29.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="79.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1540,7 +1540,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1557,7 +1557,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/EnemyList.xlsx
+++ b/Luaban/Config/Datas/EnemyList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -63,94 +63,22 @@
     <t>描述</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时600毫秒</t>
-  </si>
-  <si>
-    <t>1,4,5,6</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5600毫秒</t>
-  </si>
-  <si>
-    <t>1,7,8,9</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10600</t>
-  </si>
-  <si>
-    <t>1,1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时601毫秒</t>
-  </si>
-  <si>
-    <t>1,1,2,3,7,8,9</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5601毫秒</t>
-  </si>
-  <si>
-    <t>1,4,5,6,1,2,3</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10601</t>
-  </si>
-  <si>
-    <t>1,4,5,6,7,8,9</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时602毫秒</t>
-  </si>
-  <si>
-    <t>1,7,8,9,1,2,3</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5602毫秒</t>
-  </si>
-  <si>
-    <t>7,8,9,4,5,6</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10602</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时603毫秒</t>
-  </si>
-  <si>
-    <t>1,2,3,7,8,9,4,5,6</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5603毫秒</t>
-  </si>
-  <si>
-    <t>4,5,6,7,8,9,1,2,3</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10603</t>
-  </si>
-  <si>
-    <t>4,5,6,1,2,3,7,8,9</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始0秒后出现怪物，每个怪物间隔200毫秒，总共用时604毫秒</t>
-  </si>
-  <si>
-    <t>7,8,9,1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始5秒后出现怪物，每个怪物间隔200毫秒，总共用时5604毫秒</t>
-  </si>
-  <si>
-    <t>7,8,9,4,5,6,1,2,3</t>
-  </si>
-  <si>
-    <t>这个波次是游戏开始10秒后出现怪物，每个怪物间隔200毫秒，总共用时10604</t>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>0秒，200毫秒*3 = 600</t>
+  </si>
+  <si>
+    <t>700毫秒，200*3 =600 + 700 =1300</t>
+  </si>
+  <si>
+    <t>1000毫秒，200*3 = 600 + 1000 = 1600</t>
+  </si>
+  <si>
+    <t>1800毫秒，200*3 = 600+1800=2400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000毫秒，200*3 = </t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1062,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1225,16 +1153,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1242,16 +1170,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1259,16 +1187,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>15000</v>
+        <v>1800</v>
       </c>
       <c r="E7">
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1276,187 +1204,158 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
-        <v>25000</v>
+        <v>2550</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
-        <v>30000</v>
+        <v>3020</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
-        <v>35000</v>
+        <v>3490</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3">
-        <v>40000</v>
+        <v>3960</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
-        <v>45000</v>
+        <v>4430</v>
       </c>
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>50000</v>
+        <v>4900</v>
       </c>
       <c r="E14">
         <v>200</v>
       </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
-        <v>55000</v>
+        <v>5370</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>60000</v>
+        <v>5840</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>65000</v>
+        <v>6310</v>
       </c>
       <c r="E17">
         <v>200</v>
       </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>70000</v>
+        <v>6780</v>
       </c>
       <c r="E18" s="1">
         <v>200</v>
       </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
+      <c r="F18"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="3"/>
